--- a/RBS Collection/RBS Collection.xlsx
+++ b/RBS Collection/RBS Collection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10116" yWindow="2136" windowWidth="35844" windowHeight="21936"/>
+    <workbookView xWindow="10116" yWindow="2136" windowWidth="9084" windowHeight="5616"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7575" uniqueCount="7521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7584" uniqueCount="7528">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22657,12 +22657,33 @@
   <si>
     <t>B0030</t>
   </si>
+  <si>
+    <t>BBa_B0034</t>
+  </si>
+  <si>
+    <t>BBa_B0030</t>
+  </si>
+  <si>
+    <t>RBS (Elowitz 1999) -- defines RBS efficiency, used more than 5k times</t>
+  </si>
+  <si>
+    <t>B0034</t>
+  </si>
+  <si>
+    <t>RBS.1 (strong) -- modified from R. Weiss, used more than 1k times</t>
+  </si>
+  <si>
+    <t>B0034 RBS</t>
+  </si>
+  <si>
+    <t>B0030 RBS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -22841,6 +22862,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -22862,7 +22889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -22984,12 +23011,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23044,6 +23086,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -23499,8 +23542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -23785,7 +23828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -23826,21 +23869,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="18" t="s">
-        <v>7520</v>
+        <v>7521</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="48" t="s">
+        <v>7523</v>
+      </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>7526</v>
+      </c>
       <c r="F15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>7520</v>
+        <v>7524</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>7417</v>
@@ -23860,15 +23907,29 @@
       </c>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="18" t="s">
+        <v>7522</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>7525</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>7527</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>7520</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>7417</v>
+      </c>
       <c r="I16" s="18" t="s">
         <v>7419</v>
       </c>
